--- a/mysite/myapps/dataset/Recruiter Information.xlsx
+++ b/mysite/myapps/dataset/Recruiter Information.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noron\CODEISSANCE_43_Cool-As-Code\mysite\myapps\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21FFC54-0427-442F-A52F-018B5367A32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73016370-1B23-4EC7-A33D-FAF5C49DEEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{237E87FE-23D1-43D9-B5F1-7EF38A2192C2}"/>
+    <workbookView xWindow="4170" yWindow="1260" windowWidth="15375" windowHeight="7875" xr2:uid="{237E87FE-23D1-43D9-B5F1-7EF38A2192C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,10 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -186,6 +183,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -504,44 +504,44 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" customWidth="1"/>
-    <col min="6" max="9" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="6" max="9" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -558,171 +558,171 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>9950445464</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>9920455462</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>9265465454</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>9879876545</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>8851545863</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="E8" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>8902044321.8999996</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="E9" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>0.25</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>8678206510</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="E10" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>0.25</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>8454368698.1000004</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="E11" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>0.25</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>8230530886.1999998</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="E12" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>0.25</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>8006693074.3000002</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>5</v>
       </c>
     </row>
